--- a/photobiology/data/fvfm_06202024.xlsx
+++ b/photobiology/data/fvfm_06202024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssdon\OneDrive\Documents\github\anemone-leachate-heat\photobiology\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CE1A31-BC2F-42E7-AD60-3F4E6AB8C3B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED3C8BD-9549-4DAB-A448-108563B7995B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="82">
   <si>
     <t>Date</t>
   </si>
@@ -260,6 +260,12 @@
   </si>
   <si>
     <t>high</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. elegantissima x B. muscatinei </t>
   </si>
 </sst>
 </file>
@@ -610,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L62"/>
+  <dimension ref="A1:M62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="M47" sqref="M47"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3:M62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -622,7 +628,7 @@
     <col min="2" max="2" width="13.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -659,8 +665,11 @@
       <c r="L1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="C2" t="s">
         <v>8</v>
       </c>
@@ -668,7 +677,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>45493.891321261573</v>
       </c>
@@ -705,8 +714,11 @@
       <c r="L3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>45493.891861087963</v>
       </c>
@@ -743,8 +755,11 @@
       <c r="L4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>45493.89241177083</v>
       </c>
@@ -781,8 +796,11 @@
       <c r="L5" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>45493.89265170139</v>
       </c>
@@ -819,8 +837,11 @@
       <c r="L6" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>45493.892877673607</v>
       </c>
@@ -857,8 +878,11 @@
       <c r="L7" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>45493.893269780092</v>
       </c>
@@ -895,8 +919,11 @@
       <c r="L8" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>45493.893627662037</v>
       </c>
@@ -933,8 +960,11 @@
       <c r="L9" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>45493.89385443287</v>
       </c>
@@ -971,8 +1001,11 @@
       <c r="L10" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>45493.894216157409</v>
       </c>
@@ -1009,8 +1042,11 @@
       <c r="L11" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>45493.894410393521</v>
       </c>
@@ -1047,8 +1083,11 @@
       <c r="L12" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>45493.895327708342</v>
       </c>
@@ -1085,8 +1124,11 @@
       <c r="L13" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>45493.895554803239</v>
       </c>
@@ -1123,8 +1165,11 @@
       <c r="L14" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>45493.895990868063</v>
       </c>
@@ -1161,8 +1206,11 @@
       <c r="L15" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>45493.89644365741</v>
       </c>
@@ -1199,8 +1247,11 @@
       <c r="L16" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>45493.897100868053</v>
       </c>
@@ -1237,8 +1288,11 @@
       <c r="L17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>45493.897444305563</v>
       </c>
@@ -1275,8 +1329,11 @@
       <c r="L18" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>45493.897713923609</v>
       </c>
@@ -1313,8 +1370,11 @@
       <c r="L19" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>45493.898697303237</v>
       </c>
@@ -1351,8 +1411,11 @@
       <c r="L20" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>45493.899141828697</v>
       </c>
@@ -1389,8 +1452,11 @@
       <c r="L21" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>45493.899355740738</v>
       </c>
@@ -1427,8 +1493,11 @@
       <c r="L22" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>45493.900579664347</v>
       </c>
@@ -1465,8 +1534,11 @@
       <c r="L23" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>45493.90123609954</v>
       </c>
@@ -1503,8 +1575,11 @@
       <c r="L24" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>45493.901450729172</v>
       </c>
@@ -1541,8 +1616,11 @@
       <c r="L25" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>45493.901817523147</v>
       </c>
@@ -1579,8 +1657,11 @@
       <c r="L26" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>45493.902007303237</v>
       </c>
@@ -1617,8 +1698,11 @@
       <c r="L27" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>45493.902227326391</v>
       </c>
@@ -1655,8 +1739,11 @@
       <c r="L28" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>45493.90246125</v>
       </c>
@@ -1693,8 +1780,11 @@
       <c r="L29" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>45493.902716412027</v>
       </c>
@@ -1731,8 +1821,11 @@
       <c r="L30" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>45493.903073472233</v>
       </c>
@@ -1769,8 +1862,11 @@
       <c r="L31" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M31" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>45493.903258344908</v>
       </c>
@@ -1807,8 +1903,11 @@
       <c r="L32" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>45493.904883831019</v>
       </c>
@@ -1845,8 +1944,11 @@
       <c r="L33" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>45493.905289849543</v>
       </c>
@@ -1883,8 +1985,11 @@
       <c r="L34" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>45493.905636701391</v>
       </c>
@@ -1921,8 +2026,11 @@
       <c r="L35" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M35" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>45493.906062835653</v>
       </c>
@@ -1959,8 +2067,11 @@
       <c r="L36" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>45493.90655615741</v>
       </c>
@@ -1997,8 +2108,11 @@
       <c r="L37" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>45493.906804375001</v>
       </c>
@@ -2035,8 +2149,11 @@
       <c r="L38" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M38" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>45493.907308379632</v>
       </c>
@@ -2073,8 +2190,11 @@
       <c r="L39" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M39" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>45493.908035393521</v>
       </c>
@@ -2111,8 +2231,11 @@
       <c r="L40" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M40" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>45493.908274976849</v>
       </c>
@@ -2149,8 +2272,11 @@
       <c r="L41" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>45493.90851494213</v>
       </c>
@@ -2187,8 +2313,11 @@
       <c r="L42" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M42" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>45493.909313055563</v>
       </c>
@@ -2225,8 +2354,11 @@
       <c r="L43" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M43" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>45493.909671018519</v>
       </c>
@@ -2263,8 +2395,11 @@
       <c r="L44" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M44" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>45493.909899548613</v>
       </c>
@@ -2301,8 +2436,11 @@
       <c r="L45" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M45" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>45493.910178726852</v>
       </c>
@@ -2339,8 +2477,11 @@
       <c r="L46" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M46" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>45493.91051134259</v>
       </c>
@@ -2377,8 +2518,11 @@
       <c r="L47" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M47" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>45493.910881875003</v>
       </c>
@@ -2415,8 +2559,11 @@
       <c r="L48" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M48" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>45493.91123622685</v>
       </c>
@@ -2453,8 +2600,11 @@
       <c r="L49" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M49" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>45493.911472905093</v>
       </c>
@@ -2491,8 +2641,11 @@
       <c r="L50" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M50" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
         <v>45493.911698159733</v>
       </c>
@@ -2529,8 +2682,11 @@
       <c r="L51" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M51" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
         <v>45493.911949293979</v>
       </c>
@@ -2567,8 +2723,11 @@
       <c r="L52" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M52" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
         <v>45493.912799421298</v>
       </c>
@@ -2605,8 +2764,11 @@
       <c r="L53" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M53" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
         <v>45493.913077303238</v>
       </c>
@@ -2643,8 +2805,11 @@
       <c r="L54" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
         <v>45493.913305104157</v>
       </c>
@@ -2681,8 +2846,11 @@
       <c r="L55" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M55" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
         <v>45493.913537418979</v>
       </c>
@@ -2719,8 +2887,11 @@
       <c r="L56" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M56" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
         <v>45493.913793935193</v>
       </c>
@@ -2757,8 +2928,11 @@
       <c r="L57" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M57" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
         <v>45493.91408412037</v>
       </c>
@@ -2795,8 +2969,11 @@
       <c r="L58" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M58" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
         <v>45493.914299050928</v>
       </c>
@@ -2833,8 +3010,11 @@
       <c r="L59" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M59" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
         <v>45493.91450402778</v>
       </c>
@@ -2871,8 +3051,11 @@
       <c r="L60" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M60" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A61" s="1">
         <v>45493.914730115743</v>
       </c>
@@ -2909,8 +3092,11 @@
       <c r="L61" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M61" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A62" s="1">
         <v>45493.914923761571</v>
       </c>
@@ -2946,6 +3132,9 @@
       </c>
       <c r="L62" t="s">
         <v>79</v>
+      </c>
+      <c r="M62" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
